--- a/excel/drop.xlsx
+++ b/excel/drop.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqiangjun/Desktop/xlsx2json/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingkai.wu\Desktop\excel2json-master\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="drop" sheetId="1" r:id="rId1"/>
-    <sheet name="drop.items" sheetId="7" r:id="rId2"/>
-    <sheet name="dropGroup" sheetId="2" r:id="rId3"/>
-    <sheet name="dropGroup.dropIds" sheetId="8" r:id="rId4"/>
+    <sheet name="drop.out" sheetId="7" r:id="rId2"/>
+    <sheet name="drop-1" sheetId="2" r:id="rId3"/>
+    <sheet name="drop-1.out" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -27,19 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
-  <si>
-    <t>s100001</t>
-  </si>
-  <si>
-    <t>s100002</t>
-  </si>
-  <si>
-    <t>s100003</t>
-  </si>
-  <si>
-    <t>s100004</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,18 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s100002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>percent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,14 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dropId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <rPh sb="0" eb="1">
       <t>shuo'm</t>
@@ -167,26 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>itemNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>noRepeat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>根据权重随机掉落n次</t>
     <rPh sb="0" eb="1">
       <t>gen'ju</t>
@@ -237,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>noRepeat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>m里全部掉落</t>
   </si>
   <si>
@@ -261,14 +205,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s100005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -317,6 +253,116 @@
     <rPh sb="16" eb="17">
       <t>ke'neng</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示权重随机,
+1表示全部掉落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utNum</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>epeat</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0表示可重复掉落,
+1表示不可重复掉落</t>
+    <rPh sb="1" eb="2">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>biao'shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chogn'fu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>diao'luo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是掉落组集
+(二维掉落,先掉出掉落组,再掉落出物品)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +393,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +457,18 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,6 +478,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,88 +773,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="68" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="99" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1001</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -789,21 +875,24 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1002</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -814,19 +903,22 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>1003</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -837,19 +929,22 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1004</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -860,19 +955,22 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1005</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -883,18 +981,21 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="E9" s="6"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -907,57 +1008,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1001</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -969,9 +1070,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1001</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -983,9 +1084,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1001</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -997,9 +1098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1001</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1011,9 +1112,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1002</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1025,9 +1126,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1002</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1039,9 +1140,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1002</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -1053,9 +1154,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1002</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1067,9 +1168,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1002</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -1081,9 +1182,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1003</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1095,9 +1196,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1004</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -1109,9 +1210,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1004</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -1123,9 +1224,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1004</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -1137,9 +1238,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1004</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -1151,9 +1252,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1004</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1165,9 +1266,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1004</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -1179,9 +1280,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1004</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -1193,9 +1294,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1005</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1204,9 +1305,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>1005</v>
       </c>
       <c r="B22">
         <v>23</v>
@@ -1221,76 +1322,89 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2001</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1299,15 +1413,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2002</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1316,15 +1433,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2003</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -1333,15 +1453,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2004</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -1350,11 +1473,17 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1367,117 +1496,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1003</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1004</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1001</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1002</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1003</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1004</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1001</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1002</v>
       </c>
       <c r="C11">
         <v>10</v>
